--- a/Labs/Lab06/Lab6Rubric_CS295N_2023.xlsx
+++ b/Labs/Lab06/Lab6Rubric_CS295N_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab06/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF283CEF-14CD-43CA-BF71-A7EF7B1D3B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA25654-7C21-334D-A26D-ECAE5E3E41BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13848" yWindow="0" windowWidth="16776" windowHeight="16644" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13840" yWindow="500" windowWidth="16780" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -124,13 +124,16 @@
   </si>
   <si>
     <t>Not required</t>
+  </si>
+  <si>
+    <t>Here's the grade breakdown:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -315,6 +318,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -661,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -684,6 +695,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1045,12 +1060,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="44.296875" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1073,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.399999999999999">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1524,17 +1539,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="44.296875" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="1.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1553,22 +1570,36 @@
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17.399999999999999">
+      <c r="E6" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1671,7 @@
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1736,21 +1767,37 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="28.8" customHeight="1">
+    <row r="27" spans="1:6" ht="28.75" customHeight="1">
       <c r="A27" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="F29" s="6"/>
     </row>
@@ -1913,28 +1960,44 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1945,19 +2008,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="4" customFormat="1">
+    <row r="55" spans="1:5" s="4" customFormat="1">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -1968,7 +2031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -1979,7 +2042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -1990,7 +2053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -2001,7 +2064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -2009,7 +2072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:5">
       <c r="A62" s="7" t="s">
         <v>4</v>
       </c>
@@ -2022,11 +2085,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:5">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:5">
       <c r="A64" s="8" t="s">
         <v>6</v>
       </c>
@@ -2083,6 +2146,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A51:E51"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Labs/Lab06/Lab6Rubric_CS295N_2023.xlsx
+++ b/Labs/Lab06/Lab6Rubric_CS295N_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA25654-7C21-334D-A26D-ECAE5E3E41BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98E1320-1069-4EBD-B83D-7D48BE98FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13840" yWindow="500" windowWidth="16780" windowHeight="16640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16644" yWindow="1584" windowWidth="13788" windowHeight="13656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="35">
   <si>
     <t>-----------------------------------</t>
   </si>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>Here's the grade breakdown:</t>
+  </si>
+  <si>
+    <t>Blog posts</t>
+  </si>
+  <si>
+    <t>Users (blog posters)</t>
+  </si>
+  <si>
+    <t>A page showing all posts</t>
+  </si>
+  <si>
+    <t>Part B, Info Site</t>
   </si>
 </sst>
 </file>
@@ -672,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -692,13 +704,16 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -758,9 +773,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -798,7 +813,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -904,7 +919,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1046,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,12 +1075,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1088,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18">
+    <row r="5" spans="1:6" ht="17.399999999999999">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1539,19 +1554,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="44.296875" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="1.1640625" customWidth="1"/>
+    <col min="4" max="4" width="1.19921875" customWidth="1"/>
+    <col min="5" max="5" width="20.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -1567,39 +1583,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:6" ht="17.399999999999999">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1609,18 +1625,24 @@
       <c r="C7">
         <v>10</v>
       </c>
+      <c r="E7" s="13"/>
       <c r="F7" s="11"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="13"/>
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
@@ -1632,6 +1654,7 @@
       <c r="C11" s="12">
         <v>5</v>
       </c>
+      <c r="E11" s="13"/>
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6">
@@ -1644,6 +1667,7 @@
       <c r="C12" s="12">
         <v>5</v>
       </c>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
@@ -1655,6 +1679,7 @@
       <c r="C13" s="12">
         <v>5</v>
       </c>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -1666,12 +1691,13 @@
       <c r="C14">
         <v>10</v>
       </c>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1687,16 +1713,19 @@
         <f>SUM(C11:C15)</f>
         <v>25</v>
       </c>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
@@ -1709,6 +1738,7 @@
       <c r="C19">
         <v>3</v>
       </c>
+      <c r="E19" s="13"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6">
@@ -1721,6 +1751,7 @@
       <c r="C20">
         <v>2</v>
       </c>
+      <c r="E20" s="13"/>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6">
@@ -1735,6 +1766,7 @@
         <f>SUM(C19:C20)</f>
         <v>5</v>
       </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6">
@@ -1767,36 +1799,36 @@
       </c>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" ht="28.75" customHeight="1">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:6" ht="28.8" customHeight="1">
+      <c r="A27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="6"/>
@@ -1966,34 +1998,34 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2010,7 +2042,7 @@
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1">
       <c r="A55" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -2022,7 +2054,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -2033,7 +2065,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -2044,7 +2076,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -2147,13 +2179,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A51:E51"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A51:E51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Labs/Lab06/Lab6Rubric_CS295N_2023.xlsx
+++ b/Labs/Lab06/Lab6Rubric_CS295N_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS295N-CourseMaterials\Labs\Lab06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98E1320-1069-4EBD-B83D-7D48BE98FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9536C1-921D-45D7-AD08-E312FAF27D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16644" yWindow="1584" windowWidth="13788" windowHeight="13656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18048" yWindow="4920" windowWidth="15792" windowHeight="11952" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -1554,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1843,20 +1843,24 @@
       <c r="C30">
         <v>10</v>
       </c>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:6">
+      <c r="E31" s="13"/>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="E32" s="13"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>8</v>
       </c>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
@@ -1868,6 +1872,7 @@
       <c r="C34">
         <v>5</v>
       </c>
+      <c r="E34" s="13"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6">
@@ -1880,6 +1885,7 @@
       <c r="C35">
         <v>5</v>
       </c>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
@@ -1891,6 +1897,7 @@
       <c r="C36" s="12">
         <v>5</v>
       </c>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
@@ -1902,6 +1909,7 @@
       <c r="C37">
         <v>10</v>
       </c>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
@@ -1910,6 +1918,7 @@
       <c r="D38" t="s">
         <v>29</v>
       </c>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="7" t="s">
@@ -1923,15 +1932,18 @@
         <f>SUM(C34:C38)</f>
         <v>25</v>
       </c>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:6">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
@@ -1943,6 +1955,7 @@
       <c r="C42">
         <v>3</v>
       </c>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
@@ -1954,6 +1967,7 @@
       <c r="C43">
         <v>2</v>
       </c>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
@@ -1967,9 +1981,11 @@
         <f>SUM(C42:C43)</f>
         <v>5</v>
       </c>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="9" t="s">
@@ -1980,9 +1996,10 @@
         <v>40</v>
       </c>
       <c r="C46" s="10">
-        <f>SUM(C30,C39,C44)</f>
+        <f>SUM(C30,C39,C44, C45)</f>
         <v>40</v>
       </c>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1"/>
